--- a/story-microservice.xlsx
+++ b/story-microservice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E27A62-58A2-4D71-82E9-793EF8A5E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7286EA3-EE46-4953-99C1-E385F7970896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -786,9 +786,6 @@
   </si>
   <si>
     <t>Information about deletion of the story</t>
-  </si>
-  <si>
-    <t>The backend is built using  Golang v1.16.3 within the GoLand 2020.3.3 IDE</t>
   </si>
   <si>
     <t>Finding the selected story album for the logged in user . GET request</t>
@@ -1018,6 +1015,9 @@
   </si>
   <si>
     <t>Find a single story for user id</t>
+  </si>
+  <si>
+    <t>The backend is built using  Golang v1.15.3 within the GoLand 2021.1.1 IDE</t>
   </si>
 </sst>
 </file>
@@ -1647,12 +1647,33 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,27 +1692,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1725,18 +1725,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,12 +1754,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,8 +2490,8 @@
       <c r="A1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,11 +2512,11 @@
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
     </row>
     <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2554,7 +2554,7 @@
         <v>146</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="54">
         <v>4</v>
@@ -2573,18 +2573,18 @@
       <c r="D7" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2646,11 +2646,11 @@
       <c r="A12" s="12">
         <v>2</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
@@ -2762,10 +2762,10 @@
       <c r="A21" s="12">
         <v>3</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="55"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,11 +2877,11 @@
       <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>76</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C38" s="56" t="s">
         <v>162</v>
@@ -3001,10 +3001,10 @@
         <v>111</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="54">
         <v>4</v>
@@ -3015,7 +3015,7 @@
         <v>114</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>168</v>
@@ -3116,7 +3116,7 @@
         <v>186</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>153</v>
@@ -3236,13 +3236,13 @@
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D56" s="54">
         <v>4</v>
@@ -3250,13 +3250,13 @@
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="56" t="s">
         <v>262</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>263</v>
       </c>
       <c r="D57" s="54">
         <v>4</v>
@@ -3276,86 +3276,86 @@
       <c r="B59" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="77"/>
+      <c r="C59" s="76"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="81"/>
+      <c r="C60" s="88"/>
     </row>
     <row r="61" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="82"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="82"/>
+      <c r="C62" s="89"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="81"/>
+      <c r="C63" s="88"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="79" t="s">
-        <v>254</v>
-      </c>
-      <c r="C64" s="80"/>
+      <c r="B64" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="87"/>
     </row>
     <row r="65" spans="1:3" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="C65" s="80"/>
+      <c r="B65" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="87"/>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="80" t="s">
+      <c r="B66" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="80"/>
+      <c r="C66" s="87"/>
     </row>
     <row r="67" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="C67" s="80"/>
+      <c r="B67" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="87"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="77"/>
+      <c r="C68" s="76"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
@@ -3414,11 +3414,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="B59:C59"/>
@@ -3430,6 +3425,11 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="100"/>
       <c r="D45" s="100"/>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C75" s="100"/>
       <c r="D75" s="100"/>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C105" s="100"/>
       <c r="D105" s="100"/>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C135" s="100"/>
       <c r="D135" s="100"/>
@@ -5924,18 +5924,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B46:N74"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B2:N20"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B22:N44"/>
+    <mergeCell ref="B45:N45"/>
     <mergeCell ref="B136:N164"/>
     <mergeCell ref="B75:N75"/>
     <mergeCell ref="B76:N104"/>
     <mergeCell ref="B105:N105"/>
     <mergeCell ref="B106:N134"/>
     <mergeCell ref="B135:N135"/>
-    <mergeCell ref="B46:N74"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B2:N20"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B22:N44"/>
-    <mergeCell ref="B45:N45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5960,12 +5960,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6002,10 +6002,10 @@
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="108"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -6014,10 +6014,10 @@
       <c r="B5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="104"/>
+      <c r="D5" s="102"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6054,10 +6054,10 @@
       <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="108"/>
+      <c r="D8" s="110"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -6078,34 +6078,34 @@
       <c r="B10" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="107"/>
     </row>
     <row r="11" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="102" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="103"/>
+      <c r="D11" s="107"/>
     </row>
     <row r="12" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="103"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
@@ -6142,10 +6142,10 @@
       <c r="B15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="105"/>
+      <c r="D15" s="103"/>
     </row>
     <row r="16" spans="1:4" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
@@ -6154,10 +6154,10 @@
       <c r="B16" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="104" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="104"/>
+      <c r="C16" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
@@ -6194,22 +6194,22 @@
       <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="103"/>
     </row>
     <row r="20" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B20" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="103"/>
+      <c r="D20" s="107"/>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
@@ -6218,10 +6218,10 @@
       <c r="B21" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="103"/>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
@@ -6258,22 +6258,22 @@
       <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="109"/>
+      <c r="D24" s="111"/>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="103"/>
+      <c r="D25" s="107"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
@@ -6282,46 +6282,46 @@
       <c r="B26" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="103"/>
+      <c r="D26" s="107"/>
     </row>
     <row r="27" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="103"/>
+      <c r="D27" s="107"/>
     </row>
     <row r="28" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="103"/>
+      <c r="D28" s="107"/>
     </row>
     <row r="29" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="103"/>
+      <c r="D29" s="107"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -6358,22 +6358,22 @@
       <c r="B32" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="109"/>
+      <c r="D32" s="111"/>
     </row>
     <row r="33" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" s="104" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="104"/>
+      <c r="D33" s="102"/>
     </row>
     <row r="34" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -6382,10 +6382,10 @@
       <c r="B34" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="103"/>
+      <c r="D34" s="107"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
@@ -6422,10 +6422,10 @@
       <c r="B37" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="105"/>
+      <c r="D37" s="103"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
@@ -6434,10 +6434,10 @@
       <c r="B38" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="102"/>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
@@ -6446,22 +6446,22 @@
       <c r="B39" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="104"/>
+      <c r="D39" s="102"/>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="C40" s="104" t="s">
         <v>304</v>
       </c>
-      <c r="C40" s="110" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="105"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
@@ -6498,10 +6498,10 @@
       <c r="B43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="105"/>
+      <c r="D43" s="103"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
@@ -6510,10 +6510,10 @@
       <c r="B44" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="104"/>
+      <c r="D44" s="102"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
@@ -6550,10 +6550,10 @@
       <c r="B47" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="105"/>
+      <c r="D47" s="103"/>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -6562,10 +6562,10 @@
       <c r="B48" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="D48" s="104"/>
+      <c r="D48" s="102"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
@@ -6602,10 +6602,10 @@
       <c r="B51" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="105"/>
+      <c r="D51" s="103"/>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -6614,10 +6614,10 @@
       <c r="B52" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="104"/>
+      <c r="D52" s="102"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
@@ -6654,69 +6654,49 @@
       <c r="B55" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="105" t="s">
+      <c r="C55" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="105"/>
+      <c r="D55" s="103"/>
     </row>
     <row r="56" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B56" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="104"/>
+      <c r="D56" s="102"/>
     </row>
     <row r="57" spans="1:4" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C57" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="104"/>
+      <c r="D57" s="102"/>
     </row>
     <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" s="104" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" s="104"/>
+      <c r="D58" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C43:D43"/>
@@ -6732,6 +6712,26 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6742,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,15 +6755,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6808,7 +6808,7 @@
         <v>122</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -6825,13 +6825,13 @@
         <v>42</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="48" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,7 +6854,7 @@
         <v>122</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6871,13 +6871,13 @@
         <v>42</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="65" t="s">
         <v>120</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="157.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6894,13 +6894,13 @@
         <v>42</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6917,13 +6917,13 @@
         <v>51</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6940,13 +6940,13 @@
         <v>38</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6992,7 +6992,7 @@
         <v>122</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7032,13 +7032,13 @@
         <v>42</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>120</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7185,21 +7185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C10CBD0BFFFC4C45AC3F11163104E16D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="262411e6662ad09615282c69781eb9d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b60a26d6-954b-4ea8-8ffb-45e6dc51f000" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c47ce3659eb4404f7d05dc3dfe6d55d0" ns2:_="">
     <xsd:import namespace="b60a26d6-954b-4ea8-8ffb-45e6dc51f000"/>
@@ -7331,24 +7316,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F3655E-FF67-4DBD-8937-399569529388}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF39737-84FF-4EF8-BD97-5D0EF02227DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7364,4 +7347,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB517A3-CC67-477D-B6B3-FBDAE4AB9BBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F3655E-FF67-4DBD-8937-399569529388}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>